--- a/WpfAppVedomost/bin/Release/Test group.xlsx
+++ b/WpfAppVedomost/bin/Release/Test group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\MyApps\Диплом2019-2020\XXX\WpfAppVedomost\bin\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\XXX-master\XXX-master\WpfAppVedomost\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6819BD3-97B8-4D38-84F8-B254123212D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3CD51F-F6C6-4469-8173-B3D5932885F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4361-22" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
   <si>
     <t>Контингент студентов. Факультет наноматериалов и нанотехнологий. На 24.01.2020</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Хаматов Азат Гаянович</t>
   </si>
   <si>
-    <t>Шамсеев Адель Ильгизович</t>
-  </si>
-  <si>
     <t>Шарипова Аделя Тафкилевна</t>
   </si>
   <si>
@@ -117,7 +114,7 @@
     <t>80880</t>
   </si>
   <si>
-    <t>Ntest</t>
+    <t>Шамсеев Адель Аделькин</t>
   </si>
 </sst>
 </file>
@@ -135,7 +132,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,16 +146,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="62"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,37 +188,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -235,22 +203,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -652,33 +611,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,16 +648,16 @@
         <v>1605115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -709,16 +668,16 @@
         <v>1601639</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,16 +688,16 @@
         <v>1601592</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,16 +708,16 @@
         <v>1602489</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,16 +728,16 @@
         <v>1601656</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,16 +748,16 @@
         <v>1601588</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,16 +768,16 @@
         <v>1601591</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,16 +788,16 @@
         <v>1601589</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -849,16 +808,16 @@
         <v>1601586</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,16 +828,16 @@
         <v>1601585</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -889,16 +848,16 @@
         <v>1601640</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,19 +865,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>2144324</v>
+        <v>1223435</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,16 +888,16 @@
         <v>1601590</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -949,16 +908,16 @@
         <v>1605114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -969,96 +928,76 @@
         <v>1602468</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
         <v>1601587</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>1602473</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>1608068</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1603243</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1111111</v>
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
